--- a/EXTB/Format/利用承認書_シアター２.xlsx
+++ b/EXTB/Format/利用承認書_シアター２.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTB\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3002F90-F5B5-48F7-A6F9-B644F9C1F32C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAECF33A-B42B-4309-AB59-2E2D77462544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">    社会情勢の変化に伴い、利用時の消費税率に基づく差額を精算させていただく場合があります。</t>
+    <t>　  消費税率改定に伴い、消費税差額分を付帯請求と共にご請求させていただきます。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1111,6 +1111,216 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,15 +1333,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
     </xf>
@@ -1159,214 +1360,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2756,7 +2756,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2767,17 +2767,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2795,19 +2795,19 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2831,13 +2831,13 @@
       <c r="D5" s="14"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -2867,57 +2867,57 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="117"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:12" s="35" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -2928,46 +2928,46 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2977,19 +2977,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -3006,131 +3006,131 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81" t="s">
+      <c r="H17" s="79"/>
+      <c r="I17" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="82"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="105"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="52" t="s">
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="99"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="113"/>
       <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50" t="s">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,44 +3199,47 @@
       <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="121" t="s">
-        <v>20</v>
+      <c r="A32" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="A15:B15"/>
@@ -3245,26 +3248,23 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3294,17 +3294,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3322,19 +3322,19 @@
       <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3352,21 +3352,21 @@
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="120"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="113"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
@@ -3396,57 +3396,57 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="117"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="100"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:12" s="11" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -3457,46 +3457,46 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="3" t="s">
         <v>7</v>
       </c>
@@ -3506,19 +3506,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -3535,131 +3535,131 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81" t="s">
+      <c r="H17" s="79"/>
+      <c r="I17" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="82"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="105"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="52" t="s">
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="99"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="113"/>
       <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50" t="s">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
       <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -3728,27 +3728,57 @@
       <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="121" t="s">
-        <v>21</v>
+      <c r="A32" s="36" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A5:B5"/>
@@ -3765,36 +3795,6 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
